--- a/biology/Médecine/Curable/Curable.xlsx
+++ b/biology/Médecine/Curable/Curable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Curable signifie qui peut être guéri[1],[2] et s'applique donc aux maladies, par opposition à incurable[3]. En fonction des progrès de la médecine une maladie peut passer de la qualité d'incurable à curable[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Curable signifie qui peut être guéri, et s'applique donc aux maladies, par opposition à incurable. En fonction des progrès de la médecine une maladie peut passer de la qualité d'incurable à curable.
 Parmi les médecins anciens qui ont théorisé la notion de curabilité, on peut citer aux IXe et Xe siècles Abu Bakr Mohammad Ibn Zakariya al-Razi, ou au XIXe siècle Emil Kraepelin dans le champ des maladies mentales.
-Par extension le terme est employé dans des domaines autres que la pathologie — pour signifier qu'un état de fait peut être traité ou amélioré — comme en politique économique[5], ou de l'emploi[6], ou dans le sens de nettoyage lorsqu'il s'agit de la possibilité de curer un réservoir, une citerne ou un réseau d'effluents[7],[8],[9].
+Par extension le terme est employé dans des domaines autres que la pathologie — pour signifier qu'un état de fait peut être traité ou amélioré — comme en politique économique, ou de l'emploi, ou dans le sens de nettoyage lorsqu'il s'agit de la possibilité de curer un réservoir, une citerne ou un réseau d'effluents.
 </t>
         </is>
       </c>
